--- a/biology/Médecine/Méthode_Padovan/Méthode_Padovan.xlsx
+++ b/biology/Médecine/Méthode_Padovan/Méthode_Padovan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9thode_Padovan</t>
+          <t>Méthode_Padovan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Méthode Padovan ou Réorganisation Neurofonctionnelle (RNF) est une thérapie alternative proposée  pour divers symptômes ou des dysfonctions à composante neurologique tels que les troubles des apprentissages, les troubles développementaux, troubles du langage, troubles de l'attention, maladies dégénératives, les lésions et paralysies cérébrales et les problèmes de déglutition[1], l'autisme, la trisomie 21. Il s'agit d'une méthode non recommandée en France pour l'autisme par un panel d'experts, en raison de l’absence de données sur son efficacité, le caractère exclusif de son application et son absence de fondement théorique[2].
-Cette méthode fut créée par Beatriz Padovan au Brésil dans les années 1970. Elle se base sur les travaux de Temple Fay (1895-1963) sur l'organisation neurologique du développement de l'enfant [3], sur l'intelligence sensori-motrice développée par Piaget, ainsi que sur la théorie de Rudolf Steiner (1861-1925) du marcher-parler-penser et sur la plasticité cérébrale.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Méthode Padovan ou Réorganisation Neurofonctionnelle (RNF) est une thérapie alternative proposée  pour divers symptômes ou des dysfonctions à composante neurologique tels que les troubles des apprentissages, les troubles développementaux, troubles du langage, troubles de l'attention, maladies dégénératives, les lésions et paralysies cérébrales et les problèmes de déglutition, l'autisme, la trisomie 21. Il s'agit d'une méthode non recommandée en France pour l'autisme par un panel d'experts, en raison de l’absence de données sur son efficacité, le caractère exclusif de son application et son absence de fondement théorique.
+Cette méthode fut créée par Beatriz Padovan au Brésil dans les années 1970. Elle se base sur les travaux de Temple Fay (1895-1963) sur l'organisation neurologique du développement de l'enfant , sur l'intelligence sensori-motrice développée par Piaget, ainsi que sur la théorie de Rudolf Steiner (1861-1925) du marcher-parler-penser et sur la plasticité cérébrale.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9thode_Padovan</t>
+          <t>Méthode_Padovan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Fondements scientifiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs chercheurs ont remis en question les fondements théoriques et le manque de preuve scientifiques appuyant la méthode Padovan[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs chercheurs ont remis en question les fondements théoriques et le manque de preuve scientifiques appuyant la méthode Padovan.
 </t>
         </is>
       </c>
